--- a/biology/Histoire de la zoologie et de la botanique/Frère_León/Frère_León.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frère_León/Frère_León.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Le%C3%B3n</t>
+          <t>Frère_León</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frère León, né Joseph Sylvestre Sauget le 31 décembre 1871 à Arbois dans le Jura et mort le 20 novembre 1955, est un botaniste franco-cubain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Le%C3%B3n</t>
+          <t>Frère_León</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études secondaires à Dijon, Sylvestre Sauget entre à l'institut des Frères des écoles chrétiennes. Il part ensuite enseigner une année au Canada en 1904, au collège de Longueil, où il fait la rencontre du frère Marie-Victorin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études secondaires à Dijon, Sylvestre Sauget entre à l'institut des Frères des écoles chrétiennes. Il part ensuite enseigner une année au Canada en 1904, au collège de Longueil, où il fait la rencontre du frère Marie-Victorin.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Le%C3%B3n</t>
+          <t>Frère_León</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Cuba</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il part pour La Havane en 1905 et fait partie de l'équipe de fondateurs de la communauté de Cuba, à Güines (dans la province de Matanzas).
-Il commence alors à collecter des insectes puis des plantes dans toute l'île de Cuba. Il envoie ses observations et des échantillons de plantes aux États-Unis[2].
+Il commence alors à collecter des insectes puis des plantes dans toute l'île de Cuba. Il envoie ses observations et des échantillons de plantes aux États-Unis.
 Il est le fondateur du laboratoire de botanique et du Musée d'histoire naturelle à la maison des Frères des écoles chrétiennes de la Havane.
 Après 1938, il réalise avec le frère Marie-Victorin les Itinéraires botaniques dans l'île de Cuba.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_Le%C3%B3n</t>
+          <t>Frère_León</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Coccothrinax
-Coccothrinax acunana Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 128 (1939).
+          <t>Coccothrinax</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coccothrinax acunana Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 128 (1939).
 Coccothrinax alexandri Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 122 (1939).
 Coccothrinax bermudezii Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 124 (1939).
 Coccothrinax clarensis Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 147 (1939).
@@ -595,18 +616,86 @@
 Coccothrinax salvatoris Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 125 (1939).
 Coccothrinax saxicola Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 141 (1939).
 Coccothrinax victorini Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 139 (1939).
-Coccothrinax yuraguana (A.Rich.) Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 119 (1939).
-Copernicia
-Copernicia baileyana Léon, Revista Soc. Geogr. Cuba 4: 22 (1931).
+Coccothrinax yuraguana (A.Rich.) Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 13: 119 (1939).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frère_León</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_Le%C3%B3n</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Descriptions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Copernicia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Copernicia baileyana Léon, Revista Soc. Geogr. Cuba 4: 22 (1931).
 Copernicia brittonorum Léon, Revista Soc. Geogr. Cuba 4: 19 (1931).
 Copernicia curbeloi Léon, Revista Soc. Geogr. Cuba 4: 23 (1931).
 Copernicia fallaensis Léon, Revista Soc. Geogr. Cuba 4: 21 (1931).
 Copernicia humicola Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 10: 22 (1936).
 Copernicia longiglossa Léon, Mem. Soc. Cub. Hist. Nat. Felipe Poey 10: 210 (1936).
 Copernicia molineti Léon, Revista Soc. Geogr. Cuba 4: 25 (1931).
-Copernicia roigii Léon, Revista Soc. Geogr. Cuba 4: 17 (1931).
-Autres
-Mollugo deltoidea León Contr. Ocas. Mus. Hist. Nat. Colegio De La Salle 9: 3. (1950).
+Copernicia roigii Léon, Revista Soc. Geogr. Cuba 4: 17 (1931).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frère_León</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_Le%C3%B3n</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Descriptions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mollugo deltoidea León Contr. Ocas. Mus. Hist. Nat. Colegio De La Salle 9: 3. (1950).
 Talauma minor var. oblongifolia León Contr. Ocas. Mus. Hist. Nat. Colegio De La Salle 9: 4. (1950).</t>
         </is>
       </c>
